--- a/datasets_cestas/datasets_produtos/ilheus/carne_ilheus.xlsx
+++ b/datasets_cestas/datasets_produtos/ilheus/carne_ilheus.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Documents\NotebooksMateriais\previsao_cestas\datasets_produtos\ilheus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Documents\NotebooksMateriais\previsao_cestas\datasets_cestas\datasets_produtos\ilheus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F35F0EB-94D1-4BEA-A3C3-726935E52B0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B447C7AC-5471-4A91-9C21-2C5574373D12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2205" yWindow="2205" windowWidth="16200" windowHeight="9270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="carne_ilheus" sheetId="1" r:id="rId1"/>
@@ -686,8 +686,8 @@
   </sheetPr>
   <dimension ref="A1:B262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
-      <selection activeCell="A215" sqref="A215"/>
+    <sheetView tabSelected="1" topLeftCell="A213" workbookViewId="0">
+      <selection activeCell="B216" sqref="B216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2406,7 +2406,12 @@
       </c>
     </row>
     <row r="215" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A215" s="2"/>
+      <c r="A215" s="2">
+        <v>44865</v>
+      </c>
+      <c r="B215" s="5">
+        <v>177.3</v>
+      </c>
     </row>
     <row r="216" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="2"/>

--- a/datasets_cestas/datasets_produtos/ilheus/carne_ilheus.xlsx
+++ b/datasets_cestas/datasets_produtos/ilheus/carne_ilheus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Documents\NotebooksMateriais\previsao_cestas\datasets_cestas\datasets_produtos\ilheus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B447C7AC-5471-4A91-9C21-2C5574373D12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33124461-2908-4342-9D95-C26E2B926848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="2205" windowWidth="16200" windowHeight="9270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="carne_ilheus" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
   <si>
     <t>ano</t>
   </si>
@@ -307,6 +307,9 @@
   </si>
   <si>
     <t>31-09-2022</t>
+  </si>
+  <si>
+    <t>31-11-2022</t>
   </si>
 </sst>
 </file>
@@ -686,8 +689,8 @@
   </sheetPr>
   <dimension ref="A1:B262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A213" workbookViewId="0">
-      <selection activeCell="B216" sqref="B216"/>
+    <sheetView tabSelected="1" topLeftCell="A204" workbookViewId="0">
+      <selection activeCell="B217" sqref="B217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2414,7 +2417,12 @@
       </c>
     </row>
     <row r="216" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A216" s="2"/>
+      <c r="A216" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B216" s="5">
+        <v>174.74</v>
+      </c>
     </row>
     <row r="217" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="2"/>

--- a/datasets_cestas/datasets_produtos/ilheus/carne_ilheus.xlsx
+++ b/datasets_cestas/datasets_produtos/ilheus/carne_ilheus.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Documents\NotebooksMateriais\previsao_cestas\datasets_cestas\datasets_produtos\ilheus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Dropbox\PythonNotebooks\previsao_cestas\datasets_cestas\datasets_produtos\ilheus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33124461-2908-4342-9D95-C26E2B926848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2600CC7-B71D-4BEF-B5EB-0AA54657D890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -350,12 +350,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -367,7 +364,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -690,16 +687,16 @@
   <dimension ref="A1:B262"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A204" workbookViewId="0">
-      <selection activeCell="B217" sqref="B217"/>
+      <selection activeCell="B218" sqref="B218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
@@ -707,7 +704,7 @@
       <c r="A2" s="1">
         <v>38383</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="4">
         <v>38.21</v>
       </c>
     </row>
@@ -715,7 +712,7 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>36.86</v>
       </c>
     </row>
@@ -723,7 +720,7 @@
       <c r="A4" s="1">
         <v>38442</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>38.840000000000003</v>
       </c>
     </row>
@@ -731,7 +728,7 @@
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>37.76</v>
       </c>
     </row>
@@ -739,7 +736,7 @@
       <c r="A6" s="1">
         <v>38503</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>39.33</v>
       </c>
     </row>
@@ -747,7 +744,7 @@
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>37.58</v>
       </c>
     </row>
@@ -755,7 +752,7 @@
       <c r="A8" s="1">
         <v>38564</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>39.6</v>
       </c>
     </row>
@@ -763,7 +760,7 @@
       <c r="A9" s="1">
         <v>38595</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="4">
         <v>36.409999999999997</v>
       </c>
     </row>
@@ -771,7 +768,7 @@
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <v>36.950000000000003</v>
       </c>
     </row>
@@ -779,7 +776,7 @@
       <c r="A11" s="1">
         <v>38656</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="4">
         <v>37.53</v>
       </c>
     </row>
@@ -787,7 +784,7 @@
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="4">
         <v>37.619999999999997</v>
       </c>
     </row>
@@ -795,7 +792,7 @@
       <c r="A13" s="1">
         <v>38717</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="4">
         <v>38.340000000000003</v>
       </c>
     </row>
@@ -803,7 +800,7 @@
       <c r="A14" s="1">
         <v>38748</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="4">
         <v>38.520000000000003</v>
       </c>
     </row>
@@ -811,7 +808,7 @@
       <c r="A15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="4">
         <v>38.07</v>
       </c>
     </row>
@@ -819,7 +816,7 @@
       <c r="A16" s="1">
         <v>38807</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="4">
         <v>38.119999999999997</v>
       </c>
     </row>
@@ -827,7 +824,7 @@
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="4">
         <v>37.17</v>
       </c>
     </row>
@@ -835,7 +832,7 @@
       <c r="A18" s="1">
         <v>38868</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="4">
         <v>37.26</v>
       </c>
     </row>
@@ -843,7 +840,7 @@
       <c r="A19" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="4">
         <v>36.590000000000003</v>
       </c>
     </row>
@@ -851,7 +848,7 @@
       <c r="A20" s="1">
         <v>38929</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="4">
         <v>37.17</v>
       </c>
     </row>
@@ -859,7 +856,7 @@
       <c r="A21" s="1">
         <v>38960</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="4">
         <v>37.89</v>
       </c>
     </row>
@@ -867,7 +864,7 @@
       <c r="A22" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="4">
         <v>39.06</v>
       </c>
     </row>
@@ -875,7 +872,7 @@
       <c r="A23" s="1">
         <v>39021</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="4">
         <v>38.159999999999997</v>
       </c>
     </row>
@@ -883,7 +880,7 @@
       <c r="A24" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="4">
         <v>37.979999999999997</v>
       </c>
     </row>
@@ -891,7 +888,7 @@
       <c r="A25" s="1">
         <v>39082</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25" s="4">
         <v>40.68</v>
       </c>
     </row>
@@ -899,7 +896,7 @@
       <c r="A26" s="1">
         <v>39113</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26" s="4">
         <v>41.04</v>
       </c>
     </row>
@@ -907,7 +904,7 @@
       <c r="A27" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B27" s="4">
         <v>39.11</v>
       </c>
     </row>
@@ -915,7 +912,7 @@
       <c r="A28" s="1">
         <v>39172</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B28" s="4">
         <v>38.119999999999997</v>
       </c>
     </row>
@@ -923,7 +920,7 @@
       <c r="A29" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B29" s="5">
+      <c r="B29" s="4">
         <v>38.880000000000003</v>
       </c>
     </row>
@@ -931,7 +928,7 @@
       <c r="A30" s="1">
         <v>39233</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B30" s="4">
         <v>36.409999999999997</v>
       </c>
     </row>
@@ -939,7 +936,7 @@
       <c r="A31" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B31" s="5">
+      <c r="B31" s="4">
         <v>36.270000000000003</v>
       </c>
     </row>
@@ -947,7 +944,7 @@
       <c r="A32" s="1">
         <v>39294</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B32" s="4">
         <v>36.229999999999997</v>
       </c>
     </row>
@@ -955,7 +952,7 @@
       <c r="A33" s="1">
         <v>39325</v>
       </c>
-      <c r="B33" s="5">
+      <c r="B33" s="4">
         <v>37.44</v>
       </c>
     </row>
@@ -963,7 +960,7 @@
       <c r="A34" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="5">
+      <c r="B34" s="4">
         <v>38.97</v>
       </c>
     </row>
@@ -971,7 +968,7 @@
       <c r="A35" s="1">
         <v>39386</v>
       </c>
-      <c r="B35" s="5">
+      <c r="B35" s="4">
         <v>39.47</v>
       </c>
     </row>
@@ -979,7 +976,7 @@
       <c r="A36" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B36" s="5">
+      <c r="B36" s="4">
         <v>39.51</v>
       </c>
     </row>
@@ -987,7 +984,7 @@
       <c r="A37" s="1">
         <v>39447</v>
       </c>
-      <c r="B37" s="5">
+      <c r="B37" s="4">
         <v>41.63</v>
       </c>
     </row>
@@ -995,7 +992,7 @@
       <c r="A38" s="1">
         <v>39478</v>
       </c>
-      <c r="B38" s="5">
+      <c r="B38" s="4">
         <v>41.4</v>
       </c>
     </row>
@@ -1003,7 +1000,7 @@
       <c r="A39" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B39" s="5">
+      <c r="B39" s="4">
         <v>42.3</v>
       </c>
     </row>
@@ -1011,7 +1008,7 @@
       <c r="A40" s="1">
         <v>39538</v>
       </c>
-      <c r="B40" s="5">
+      <c r="B40" s="4">
         <v>40.549999999999997</v>
       </c>
     </row>
@@ -1019,7 +1016,7 @@
       <c r="A41" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B41" s="5">
+      <c r="B41" s="4">
         <v>41.76</v>
       </c>
     </row>
@@ -1027,7 +1024,7 @@
       <c r="A42" s="1">
         <v>39599</v>
       </c>
-      <c r="B42" s="5">
+      <c r="B42" s="4">
         <v>43.7</v>
       </c>
     </row>
@@ -1035,7 +1032,7 @@
       <c r="A43" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B43" s="5">
+      <c r="B43" s="4">
         <v>44.6</v>
       </c>
     </row>
@@ -1043,7 +1040,7 @@
       <c r="A44" s="1">
         <v>39660</v>
       </c>
-      <c r="B44" s="5">
+      <c r="B44" s="4">
         <v>45.23</v>
       </c>
     </row>
@@ -1051,7 +1048,7 @@
       <c r="A45" s="1">
         <v>39691</v>
       </c>
-      <c r="B45" s="5">
+      <c r="B45" s="4">
         <v>44.96</v>
       </c>
     </row>
@@ -1059,7 +1056,7 @@
       <c r="A46" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B46" s="5">
+      <c r="B46" s="4">
         <v>47.43</v>
       </c>
     </row>
@@ -1067,7 +1064,7 @@
       <c r="A47" s="1">
         <v>39752</v>
       </c>
-      <c r="B47" s="5">
+      <c r="B47" s="4">
         <v>50.4</v>
       </c>
     </row>
@@ -1075,7 +1072,7 @@
       <c r="A48" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B48" s="5">
+      <c r="B48" s="4">
         <v>52.02</v>
       </c>
     </row>
@@ -1083,7 +1080,7 @@
       <c r="A49" s="1">
         <v>39813</v>
       </c>
-      <c r="B49" s="5">
+      <c r="B49" s="4">
         <v>55.4</v>
       </c>
     </row>
@@ -1091,7 +1088,7 @@
       <c r="A50" s="1">
         <v>39844</v>
       </c>
-      <c r="B50" s="5">
+      <c r="B50" s="4">
         <v>53.1</v>
       </c>
     </row>
@@ -1099,7 +1096,7 @@
       <c r="A51" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B51" s="5">
+      <c r="B51" s="4">
         <v>51.89</v>
       </c>
     </row>
@@ -1107,7 +1104,7 @@
       <c r="A52" s="1">
         <v>39903</v>
       </c>
-      <c r="B52" s="5">
+      <c r="B52" s="4">
         <v>51.39</v>
       </c>
     </row>
@@ -1115,7 +1112,7 @@
       <c r="A53" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B53" s="5">
+      <c r="B53" s="4">
         <v>51.93</v>
       </c>
     </row>
@@ -1123,7 +1120,7 @@
       <c r="A54" s="1">
         <v>39964</v>
       </c>
-      <c r="B54" s="5">
+      <c r="B54" s="4">
         <v>50.58</v>
       </c>
     </row>
@@ -1131,7 +1128,7 @@
       <c r="A55" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B55" s="5">
+      <c r="B55" s="4">
         <v>50.58</v>
       </c>
     </row>
@@ -1139,7 +1136,7 @@
       <c r="A56" s="1">
         <v>40025</v>
       </c>
-      <c r="B56" s="5">
+      <c r="B56" s="4">
         <v>51.75</v>
       </c>
     </row>
@@ -1147,7 +1144,7 @@
       <c r="A57" s="1">
         <v>40056</v>
       </c>
-      <c r="B57" s="5">
+      <c r="B57" s="4">
         <v>51.62</v>
       </c>
     </row>
@@ -1155,7 +1152,7 @@
       <c r="A58" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B58" s="5">
+      <c r="B58" s="4">
         <v>53.24</v>
       </c>
     </row>
@@ -1163,7 +1160,7 @@
       <c r="A59" s="1">
         <v>40117</v>
       </c>
-      <c r="B59" s="5">
+      <c r="B59" s="4">
         <v>46.31</v>
       </c>
     </row>
@@ -1171,7 +1168,7 @@
       <c r="A60" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B60" s="5">
+      <c r="B60" s="4">
         <v>52.56</v>
       </c>
     </row>
@@ -1179,7 +1176,7 @@
       <c r="A61" s="1">
         <v>40178</v>
       </c>
-      <c r="B61" s="5">
+      <c r="B61" s="4">
         <v>49.77</v>
       </c>
     </row>
@@ -1187,7 +1184,7 @@
       <c r="A62" s="1">
         <v>40209</v>
       </c>
-      <c r="B62" s="5">
+      <c r="B62" s="4">
         <v>50.58</v>
       </c>
     </row>
@@ -1195,7 +1192,7 @@
       <c r="A63" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B63" s="5">
+      <c r="B63" s="4">
         <v>53.73</v>
       </c>
     </row>
@@ -1203,7 +1200,7 @@
       <c r="A64" s="1">
         <v>40268</v>
       </c>
-      <c r="B64" s="5">
+      <c r="B64" s="4">
         <v>53.55</v>
       </c>
     </row>
@@ -1211,7 +1208,7 @@
       <c r="A65" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B65" s="5">
+      <c r="B65" s="4">
         <v>53.24</v>
       </c>
     </row>
@@ -1219,7 +1216,7 @@
       <c r="A66" s="1">
         <v>40329</v>
       </c>
-      <c r="B66" s="5">
+      <c r="B66" s="4">
         <v>56.25</v>
       </c>
     </row>
@@ -1227,7 +1224,7 @@
       <c r="A67" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B67" s="5">
+      <c r="B67" s="4">
         <v>57.06</v>
       </c>
     </row>
@@ -1235,7 +1232,7 @@
       <c r="A68" s="1">
         <v>40390</v>
       </c>
-      <c r="B68" s="5">
+      <c r="B68" s="4">
         <v>56.79</v>
       </c>
     </row>
@@ -1243,7 +1240,7 @@
       <c r="A69" s="1">
         <v>40421</v>
       </c>
-      <c r="B69" s="5">
+      <c r="B69" s="4">
         <v>57.2</v>
       </c>
     </row>
@@ -1251,7 +1248,7 @@
       <c r="A70" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B70" s="5">
+      <c r="B70" s="4">
         <v>60.62</v>
       </c>
     </row>
@@ -1259,7 +1256,7 @@
       <c r="A71" s="1">
         <v>40482</v>
       </c>
-      <c r="B71" s="5">
+      <c r="B71" s="4">
         <v>63.18</v>
       </c>
     </row>
@@ -1267,7 +1264,7 @@
       <c r="A72" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B72" s="5">
+      <c r="B72" s="4">
         <v>67.86</v>
       </c>
     </row>
@@ -1275,7 +1272,7 @@
       <c r="A73" s="1">
         <v>40543</v>
       </c>
-      <c r="B73" s="5">
+      <c r="B73" s="4">
         <v>68.94</v>
       </c>
     </row>
@@ -1283,7 +1280,7 @@
       <c r="A74" s="1">
         <v>40574</v>
       </c>
-      <c r="B74" s="5">
+      <c r="B74" s="4">
         <v>62.51</v>
       </c>
     </row>
@@ -1291,7 +1288,7 @@
       <c r="A75" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B75" s="5">
+      <c r="B75" s="4">
         <v>65.209999999999994</v>
       </c>
     </row>
@@ -1299,7 +1296,7 @@
       <c r="A76" s="1">
         <v>40633</v>
       </c>
-      <c r="B76" s="5">
+      <c r="B76" s="4">
         <v>66.87</v>
       </c>
     </row>
@@ -1307,7 +1304,7 @@
       <c r="A77" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B77" s="5">
+      <c r="B77" s="4">
         <v>63.45</v>
       </c>
     </row>
@@ -1315,7 +1312,7 @@
       <c r="A78" s="1">
         <v>40694</v>
       </c>
-      <c r="B78" s="5">
+      <c r="B78" s="4">
         <v>63.68</v>
       </c>
     </row>
@@ -1323,7 +1320,7 @@
       <c r="A79" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B79" s="5">
+      <c r="B79" s="4">
         <v>63.27</v>
       </c>
     </row>
@@ -1331,7 +1328,7 @@
       <c r="A80" s="1">
         <v>40755</v>
       </c>
-      <c r="B80" s="5">
+      <c r="B80" s="4">
         <v>63.72</v>
       </c>
     </row>
@@ -1339,7 +1336,7 @@
       <c r="A81" s="1">
         <v>40786</v>
       </c>
-      <c r="B81" s="5">
+      <c r="B81" s="4">
         <v>63.14</v>
       </c>
     </row>
@@ -1347,7 +1344,7 @@
       <c r="A82" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B82" s="5">
+      <c r="B82" s="4">
         <v>64.760000000000005</v>
       </c>
     </row>
@@ -1355,7 +1352,7 @@
       <c r="A83" s="1">
         <v>40847</v>
       </c>
-      <c r="B83" s="5">
+      <c r="B83" s="4">
         <v>63.09</v>
       </c>
     </row>
@@ -1363,7 +1360,7 @@
       <c r="A84" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B84" s="5">
+      <c r="B84" s="4">
         <v>69.44</v>
       </c>
     </row>
@@ -1371,7 +1368,7 @@
       <c r="A85" s="1">
         <v>40908</v>
       </c>
-      <c r="B85" s="5">
+      <c r="B85" s="4">
         <v>73.349999999999994</v>
       </c>
     </row>
@@ -1379,7 +1376,7 @@
       <c r="A86" s="1">
         <v>40939</v>
       </c>
-      <c r="B86" s="5">
+      <c r="B86" s="4">
         <v>72.72</v>
       </c>
     </row>
@@ -1387,7 +1384,7 @@
       <c r="A87" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B87" s="5">
+      <c r="B87" s="4">
         <v>74.52</v>
       </c>
     </row>
@@ -1395,7 +1392,7 @@
       <c r="A88" s="1">
         <v>40999</v>
       </c>
-      <c r="B88" s="5">
+      <c r="B88" s="4">
         <v>74.52</v>
       </c>
     </row>
@@ -1403,7 +1400,7 @@
       <c r="A89" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B89" s="5">
+      <c r="B89" s="4">
         <v>69.260000000000005</v>
       </c>
     </row>
@@ -1411,7 +1408,7 @@
       <c r="A90" s="1">
         <v>41060</v>
       </c>
-      <c r="B90" s="5">
+      <c r="B90" s="4">
         <v>71.19</v>
       </c>
     </row>
@@ -1419,7 +1416,7 @@
       <c r="A91" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B91" s="5">
+      <c r="B91" s="4">
         <v>65.66</v>
       </c>
     </row>
@@ -1427,7 +1424,7 @@
       <c r="A92" s="1">
         <v>41121</v>
       </c>
-      <c r="B92" s="5">
+      <c r="B92" s="4">
         <v>64.17</v>
       </c>
     </row>
@@ -1435,7 +1432,7 @@
       <c r="A93" s="1">
         <v>41152</v>
       </c>
-      <c r="B93" s="5">
+      <c r="B93" s="4">
         <v>69.260000000000005</v>
       </c>
     </row>
@@ -1443,7 +1440,7 @@
       <c r="A94" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B94" s="5">
+      <c r="B94" s="4">
         <v>68.13</v>
       </c>
     </row>
@@ -1451,7 +1448,7 @@
       <c r="A95" s="1">
         <v>41213</v>
       </c>
-      <c r="B95" s="5">
+      <c r="B95" s="4">
         <v>70.650000000000006</v>
       </c>
     </row>
@@ -1459,7 +1456,7 @@
       <c r="A96" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B96" s="5">
+      <c r="B96" s="4">
         <v>70.430000000000007</v>
       </c>
     </row>
@@ -1467,7 +1464,7 @@
       <c r="A97" s="1">
         <v>41274</v>
       </c>
-      <c r="B97" s="5">
+      <c r="B97" s="4">
         <v>70.38</v>
       </c>
     </row>
@@ -1475,7 +1472,7 @@
       <c r="A98" s="1">
         <v>41305</v>
       </c>
-      <c r="B98" s="5">
+      <c r="B98" s="4">
         <v>71.69</v>
       </c>
     </row>
@@ -1483,7 +1480,7 @@
       <c r="A99" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B99" s="5">
+      <c r="B99" s="4">
         <v>74.52</v>
       </c>
     </row>
@@ -1491,7 +1488,7 @@
       <c r="A100" s="1">
         <v>41364</v>
       </c>
-      <c r="B100" s="5">
+      <c r="B100" s="4">
         <v>73.31</v>
       </c>
     </row>
@@ -1499,7 +1496,7 @@
       <c r="A101" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B101" s="5">
+      <c r="B101" s="4">
         <v>63.05</v>
       </c>
     </row>
@@ -1507,7 +1504,7 @@
       <c r="A102" s="1">
         <v>41425</v>
       </c>
-      <c r="B102" s="5">
+      <c r="B102" s="4">
         <v>68.67</v>
       </c>
     </row>
@@ -1515,7 +1512,7 @@
       <c r="A103" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B103" s="5">
+      <c r="B103" s="4">
         <v>69.709999999999994</v>
       </c>
     </row>
@@ -1523,7 +1520,7 @@
       <c r="A104" s="1">
         <v>41486</v>
       </c>
-      <c r="B104" s="5">
+      <c r="B104" s="4">
         <v>69.39</v>
       </c>
     </row>
@@ -1531,7 +1528,7 @@
       <c r="A105" s="1">
         <v>41517</v>
       </c>
-      <c r="B105" s="5">
+      <c r="B105" s="4">
         <v>70.92</v>
       </c>
     </row>
@@ -1539,7 +1536,7 @@
       <c r="A106" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B106" s="5">
+      <c r="B106" s="4">
         <v>72.63</v>
       </c>
     </row>
@@ -1547,7 +1544,7 @@
       <c r="A107" s="1">
         <v>41578</v>
       </c>
-      <c r="B107" s="5">
+      <c r="B107" s="4">
         <v>68.900000000000006</v>
       </c>
     </row>
@@ -1555,7 +1552,7 @@
       <c r="A108" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B108" s="5">
+      <c r="B108" s="4">
         <v>71.42</v>
       </c>
     </row>
@@ -1563,7 +1560,7 @@
       <c r="A109" s="1">
         <v>41639</v>
       </c>
-      <c r="B109" s="5">
+      <c r="B109" s="4">
         <v>71.010000000000005</v>
       </c>
     </row>
@@ -1571,7 +1568,7 @@
       <c r="A110" s="1">
         <v>41670</v>
       </c>
-      <c r="B110" s="5">
+      <c r="B110" s="4">
         <v>72.989999999999995</v>
       </c>
     </row>
@@ -1579,7 +1576,7 @@
       <c r="A111" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B111" s="5">
+      <c r="B111" s="4">
         <v>69.89</v>
       </c>
     </row>
@@ -1587,7 +1584,7 @@
       <c r="A112" s="1">
         <v>41729</v>
       </c>
-      <c r="B112" s="5">
+      <c r="B112" s="4">
         <v>72.05</v>
       </c>
     </row>
@@ -1595,7 +1592,7 @@
       <c r="A113" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B113" s="5">
+      <c r="B113" s="4">
         <v>76.319999999999993</v>
       </c>
     </row>
@@ -1603,7 +1600,7 @@
       <c r="A114" s="1">
         <v>41790</v>
       </c>
-      <c r="B114" s="5">
+      <c r="B114" s="4">
         <v>75.2</v>
       </c>
     </row>
@@ -1611,7 +1608,7 @@
       <c r="A115" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B115" s="5">
+      <c r="B115" s="4">
         <v>75.599999999999994</v>
       </c>
     </row>
@@ -1619,7 +1616,7 @@
       <c r="A116" s="1">
         <v>41851</v>
       </c>
-      <c r="B116" s="5">
+      <c r="B116" s="4">
         <v>74.03</v>
       </c>
     </row>
@@ -1627,7 +1624,7 @@
       <c r="A117" s="1">
         <v>41882</v>
       </c>
-      <c r="B117" s="5">
+      <c r="B117" s="4">
         <v>76.010000000000005</v>
       </c>
     </row>
@@ -1635,7 +1632,7 @@
       <c r="A118" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B118" s="5">
+      <c r="B118" s="4">
         <v>75.42</v>
       </c>
     </row>
@@ -1643,7 +1640,7 @@
       <c r="A119" s="1">
         <v>41943</v>
       </c>
-      <c r="B119" s="5">
+      <c r="B119" s="4">
         <v>75.739999999999995</v>
       </c>
     </row>
@@ -1651,7 +1648,7 @@
       <c r="A120" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B120" s="5">
+      <c r="B120" s="4">
         <v>74.75</v>
       </c>
     </row>
@@ -1659,7 +1656,7 @@
       <c r="A121" s="1">
         <v>42004</v>
       </c>
-      <c r="B121" s="5">
+      <c r="B121" s="4">
         <v>76.73</v>
       </c>
     </row>
@@ -1667,7 +1664,7 @@
       <c r="A122" s="1">
         <v>42035</v>
       </c>
-      <c r="B122" s="5">
+      <c r="B122" s="4">
         <v>77.540000000000006</v>
       </c>
     </row>
@@ -1675,7 +1672,7 @@
       <c r="A123" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B123" s="5">
+      <c r="B123" s="4">
         <v>76.5</v>
       </c>
     </row>
@@ -1683,7 +1680,7 @@
       <c r="A124" s="1">
         <v>42094</v>
       </c>
-      <c r="B124" s="5">
+      <c r="B124" s="4">
         <v>81.5</v>
       </c>
     </row>
@@ -1691,7 +1688,7 @@
       <c r="A125" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B125" s="5">
+      <c r="B125" s="4">
         <v>83.21</v>
       </c>
     </row>
@@ -1699,7 +1696,7 @@
       <c r="A126" s="1">
         <v>42155</v>
       </c>
-      <c r="B126" s="5">
+      <c r="B126" s="4">
         <v>78.75</v>
       </c>
     </row>
@@ -1707,7 +1704,7 @@
       <c r="A127" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B127" s="5">
+      <c r="B127" s="4">
         <v>83.48</v>
       </c>
     </row>
@@ -1715,7 +1712,7 @@
       <c r="A128" s="1">
         <v>42216</v>
       </c>
-      <c r="B128" s="5">
+      <c r="B128" s="4">
         <v>93.65</v>
       </c>
     </row>
@@ -1723,7 +1720,7 @@
       <c r="A129" s="1">
         <v>42247</v>
       </c>
-      <c r="B129" s="5">
+      <c r="B129" s="4">
         <v>95.27</v>
       </c>
     </row>
@@ -1731,7 +1728,7 @@
       <c r="A130" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B130" s="5">
+      <c r="B130" s="4">
         <v>94.95</v>
       </c>
     </row>
@@ -1739,7 +1736,7 @@
       <c r="A131" s="1">
         <v>42308</v>
       </c>
-      <c r="B131" s="5">
+      <c r="B131" s="4">
         <v>93.74</v>
       </c>
     </row>
@@ -1747,7 +1744,7 @@
       <c r="A132" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B132" s="5">
+      <c r="B132" s="4">
         <v>96.03</v>
       </c>
     </row>
@@ -1755,7 +1752,7 @@
       <c r="A133" s="1">
         <v>42369</v>
       </c>
-      <c r="B133" s="5">
+      <c r="B133" s="4">
         <v>96.35</v>
       </c>
     </row>
@@ -1763,7 +1760,7 @@
       <c r="A134" s="1">
         <v>42400</v>
       </c>
-      <c r="B134" s="5">
+      <c r="B134" s="4">
         <v>98.69</v>
       </c>
     </row>
@@ -1771,7 +1768,7 @@
       <c r="A135" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B135" s="5">
+      <c r="B135" s="4">
         <v>104.04</v>
       </c>
     </row>
@@ -1779,7 +1776,7 @@
       <c r="A136" s="1">
         <v>42460</v>
       </c>
-      <c r="B136" s="5">
+      <c r="B136" s="4">
         <v>105.62</v>
       </c>
     </row>
@@ -1787,7 +1784,7 @@
       <c r="A137" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B137" s="5">
+      <c r="B137" s="4">
         <v>101.07</v>
       </c>
     </row>
@@ -1795,7 +1792,7 @@
       <c r="A138" s="1">
         <v>42521</v>
       </c>
-      <c r="B138" s="5">
+      <c r="B138" s="4">
         <v>93.78</v>
       </c>
     </row>
@@ -1803,7 +1800,7 @@
       <c r="A139" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B139" s="5">
+      <c r="B139" s="4">
         <v>94.64</v>
       </c>
     </row>
@@ -1811,7 +1808,7 @@
       <c r="A140" s="1">
         <v>42582</v>
       </c>
-      <c r="B140" s="5">
+      <c r="B140" s="4">
         <v>94.86</v>
       </c>
     </row>
@@ -1819,7 +1816,7 @@
       <c r="A141" s="1">
         <v>42613</v>
       </c>
-      <c r="B141" s="5">
+      <c r="B141" s="4">
         <v>92.79</v>
       </c>
     </row>
@@ -1827,7 +1824,7 @@
       <c r="A142" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B142" s="5">
+      <c r="B142" s="4">
         <v>93.24</v>
       </c>
     </row>
@@ -1835,7 +1832,7 @@
       <c r="A143" s="1">
         <v>42674</v>
       </c>
-      <c r="B143" s="5">
+      <c r="B143" s="4">
         <v>95.54</v>
       </c>
     </row>
@@ -1843,7 +1840,7 @@
       <c r="A144" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B144" s="5">
+      <c r="B144" s="4">
         <v>95.22</v>
       </c>
     </row>
@@ -1851,7 +1848,7 @@
       <c r="A145" s="1">
         <v>42735</v>
       </c>
-      <c r="B145" s="5">
+      <c r="B145" s="4">
         <v>98.42</v>
       </c>
     </row>
@@ -1859,7 +1856,7 @@
       <c r="A146" s="1">
         <v>42766</v>
       </c>
-      <c r="B146" s="5">
+      <c r="B146" s="4">
         <v>100.76</v>
       </c>
     </row>
@@ -1867,7 +1864,7 @@
       <c r="A147" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B147" s="5">
+      <c r="B147" s="4">
         <v>96.12</v>
       </c>
     </row>
@@ -1875,7 +1872,7 @@
       <c r="A148" s="1">
         <v>42825</v>
       </c>
-      <c r="B148" s="5">
+      <c r="B148" s="4">
         <v>97.02</v>
       </c>
     </row>
@@ -1883,7 +1880,7 @@
       <c r="A149" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B149" s="5">
+      <c r="B149" s="4">
         <v>98.19</v>
       </c>
     </row>
@@ -1891,7 +1888,7 @@
       <c r="A150" s="1">
         <v>42886</v>
       </c>
-      <c r="B150" s="5">
+      <c r="B150" s="4">
         <v>92.7</v>
       </c>
     </row>
@@ -1899,7 +1896,7 @@
       <c r="A151" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B151" s="5">
+      <c r="B151" s="4">
         <v>94.82</v>
       </c>
     </row>
@@ -1907,7 +1904,7 @@
       <c r="A152" s="1">
         <v>42947</v>
       </c>
-      <c r="B152" s="5">
+      <c r="B152" s="4">
         <v>94.86</v>
       </c>
     </row>
@@ -1915,7 +1912,7 @@
       <c r="A153" s="1">
         <v>42978</v>
       </c>
-      <c r="B153" s="5">
+      <c r="B153" s="4">
         <v>95.49</v>
       </c>
     </row>
@@ -1923,7 +1920,7 @@
       <c r="A154" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B154" s="5">
+      <c r="B154" s="4">
         <v>95.31</v>
       </c>
     </row>
@@ -1931,7 +1928,7 @@
       <c r="A155" s="1">
         <v>43039</v>
       </c>
-      <c r="B155" s="5">
+      <c r="B155" s="4">
         <v>97.92</v>
       </c>
     </row>
@@ -1939,7 +1936,7 @@
       <c r="A156" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B156" s="5">
+      <c r="B156" s="4">
         <v>97.88</v>
       </c>
     </row>
@@ -1947,7 +1944,7 @@
       <c r="A157" s="1">
         <v>43100</v>
       </c>
-      <c r="B157" s="5">
+      <c r="B157" s="4">
         <v>98.78</v>
       </c>
     </row>
@@ -1955,7 +1952,7 @@
       <c r="A158" s="1">
         <v>43131</v>
       </c>
-      <c r="B158" s="5">
+      <c r="B158" s="4">
         <v>101.21</v>
       </c>
     </row>
@@ -1963,7 +1960,7 @@
       <c r="A159" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B159" s="5">
+      <c r="B159" s="4">
         <v>101.79</v>
       </c>
     </row>
@@ -1971,7 +1968,7 @@
       <c r="A160" s="1">
         <v>43190</v>
       </c>
-      <c r="B160" s="5">
+      <c r="B160" s="4">
         <v>99.18</v>
       </c>
     </row>
@@ -1979,7 +1976,7 @@
       <c r="A161" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B161" s="5">
+      <c r="B161" s="4">
         <v>96.57</v>
       </c>
     </row>
@@ -1987,7 +1984,7 @@
       <c r="A162" s="1">
         <v>43251</v>
       </c>
-      <c r="B162" s="5">
+      <c r="B162" s="4">
         <v>99.45</v>
       </c>
     </row>
@@ -1995,7 +1992,7 @@
       <c r="A163" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B163" s="5">
+      <c r="B163" s="4">
         <v>105.21</v>
       </c>
     </row>
@@ -2003,7 +2000,7 @@
       <c r="A164" s="1">
         <v>43312</v>
       </c>
-      <c r="B164" s="5">
+      <c r="B164" s="4">
         <v>99.23</v>
       </c>
     </row>
@@ -2011,7 +2008,7 @@
       <c r="A165" s="1">
         <v>43343</v>
       </c>
-      <c r="B165" s="5">
+      <c r="B165" s="4">
         <v>101.52</v>
       </c>
     </row>
@@ -2019,7 +2016,7 @@
       <c r="A166" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B166" s="5">
+      <c r="B166" s="4">
         <v>100.22</v>
       </c>
     </row>
@@ -2027,7 +2024,7 @@
       <c r="A167" s="1">
         <v>43404</v>
       </c>
-      <c r="B167" s="5">
+      <c r="B167" s="4">
         <v>103.01</v>
       </c>
     </row>
@@ -2035,7 +2032,7 @@
       <c r="A168" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B168" s="5">
+      <c r="B168" s="4">
         <v>105.03</v>
       </c>
     </row>
@@ -2043,7 +2040,7 @@
       <c r="A169" s="1">
         <v>43465</v>
       </c>
-      <c r="B169" s="5">
+      <c r="B169" s="4">
         <v>110.16</v>
       </c>
     </row>
@@ -2051,7 +2048,7 @@
       <c r="A170" s="1">
         <v>43496</v>
       </c>
-      <c r="B170" s="5">
+      <c r="B170" s="4">
         <v>113</v>
       </c>
     </row>
@@ -2059,7 +2056,7 @@
       <c r="A171" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B171" s="5">
+      <c r="B171" s="4">
         <v>114.08</v>
       </c>
     </row>
@@ -2067,7 +2064,7 @@
       <c r="A172" s="1">
         <v>43555</v>
       </c>
-      <c r="B172" s="5">
+      <c r="B172" s="4">
         <v>108.81</v>
       </c>
     </row>
@@ -2075,7 +2072,7 @@
       <c r="A173" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B173" s="5">
+      <c r="B173" s="4">
         <v>108.5</v>
       </c>
     </row>
@@ -2083,7 +2080,7 @@
       <c r="A174" s="1">
         <v>43616</v>
       </c>
-      <c r="B174" s="5">
+      <c r="B174" s="4">
         <v>106.11</v>
       </c>
     </row>
@@ -2091,7 +2088,7 @@
       <c r="A175" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B175" s="5">
+      <c r="B175" s="4">
         <v>105.48</v>
       </c>
     </row>
@@ -2099,7 +2096,7 @@
       <c r="A176" s="1">
         <v>43677</v>
       </c>
-      <c r="B176" s="5">
+      <c r="B176" s="4">
         <v>101.48</v>
       </c>
     </row>
@@ -2107,7 +2104,7 @@
       <c r="A177" s="1">
         <v>43708</v>
       </c>
-      <c r="B177" s="5">
+      <c r="B177" s="4">
         <v>103.64</v>
       </c>
     </row>
@@ -2115,7 +2112,7 @@
       <c r="A178" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B178" s="5">
+      <c r="B178" s="4">
         <v>106.56</v>
       </c>
     </row>
@@ -2123,7 +2120,7 @@
       <c r="A179" s="1">
         <v>43769</v>
       </c>
-      <c r="B179" s="5">
+      <c r="B179" s="4">
         <v>100.8</v>
       </c>
     </row>
@@ -2131,7 +2128,7 @@
       <c r="A180" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B180" s="5">
+      <c r="B180" s="4">
         <v>108.45</v>
       </c>
     </row>
@@ -2139,7 +2136,7 @@
       <c r="A181" s="1">
         <v>43830</v>
       </c>
-      <c r="B181" s="5">
+      <c r="B181" s="4">
         <v>129.91999999999999</v>
       </c>
     </row>
@@ -2147,7 +2144,7 @@
       <c r="A182" s="1">
         <v>43861</v>
       </c>
-      <c r="B182" s="5">
+      <c r="B182" s="4">
         <v>107.91</v>
       </c>
     </row>
@@ -2155,7 +2152,7 @@
       <c r="A183" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B183" s="5">
+      <c r="B183" s="4">
         <v>113.81</v>
       </c>
     </row>
@@ -2163,7 +2160,7 @@
       <c r="A184" s="1">
         <v>43921</v>
       </c>
-      <c r="B184" s="5">
+      <c r="B184" s="4">
         <v>115.88</v>
       </c>
     </row>
@@ -2171,7 +2168,7 @@
       <c r="A185" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B185" s="5">
+      <c r="B185" s="4">
         <v>119.25</v>
       </c>
     </row>
@@ -2179,7 +2176,7 @@
       <c r="A186" s="1">
         <v>43982</v>
       </c>
-      <c r="B186" s="5">
+      <c r="B186" s="4">
         <v>118.62</v>
       </c>
     </row>
@@ -2187,7 +2184,7 @@
       <c r="A187" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B187" s="5">
+      <c r="B187" s="4">
         <v>115.25</v>
       </c>
     </row>
@@ -2195,7 +2192,7 @@
       <c r="A188" s="1">
         <v>44043</v>
       </c>
-      <c r="B188" s="5">
+      <c r="B188" s="4">
         <v>118.67</v>
       </c>
     </row>
@@ -2203,7 +2200,7 @@
       <c r="A189" s="1">
         <v>44074</v>
       </c>
-      <c r="B189" s="5">
+      <c r="B189" s="4">
         <v>135.05000000000001</v>
       </c>
     </row>
@@ -2211,7 +2208,7 @@
       <c r="A190" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B190" s="5">
+      <c r="B190" s="4">
         <v>142.79</v>
       </c>
     </row>
@@ -2219,7 +2216,7 @@
       <c r="A191" s="1">
         <v>44135</v>
       </c>
-      <c r="B191" s="5">
+      <c r="B191" s="4">
         <v>148.19</v>
       </c>
     </row>
@@ -2227,7 +2224,7 @@
       <c r="A192" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B192" s="5">
+      <c r="B192" s="4">
         <v>157.46</v>
       </c>
     </row>
@@ -2235,7 +2232,7 @@
       <c r="A193" s="1">
         <v>44196</v>
       </c>
-      <c r="B193" s="5">
+      <c r="B193" s="4">
         <v>137.84</v>
       </c>
     </row>
@@ -2243,7 +2240,7 @@
       <c r="A194" s="1">
         <v>44227</v>
       </c>
-      <c r="B194" s="5">
+      <c r="B194" s="4">
         <v>158.04</v>
       </c>
     </row>
@@ -2251,7 +2248,7 @@
       <c r="A195" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B195" s="5">
+      <c r="B195" s="4">
         <v>159.97999999999999</v>
       </c>
     </row>
@@ -2259,7 +2256,7 @@
       <c r="A196" s="1">
         <v>44286</v>
       </c>
-      <c r="B196" s="5">
+      <c r="B196" s="4">
         <v>142.43</v>
       </c>
     </row>
@@ -2267,7 +2264,7 @@
       <c r="A197" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B197" s="5">
+      <c r="B197" s="4">
         <v>152.87</v>
       </c>
     </row>
@@ -2275,7 +2272,7 @@
       <c r="A198" s="1">
         <v>44347</v>
       </c>
-      <c r="B198" s="5">
+      <c r="B198" s="4">
         <v>156.91999999999999</v>
       </c>
     </row>
@@ -2283,7 +2280,7 @@
       <c r="A199" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B199" s="5">
+      <c r="B199" s="4">
         <v>168.66</v>
       </c>
     </row>
@@ -2291,7 +2288,7 @@
       <c r="A200" s="1">
         <v>44408</v>
       </c>
-      <c r="B200" s="5">
+      <c r="B200" s="4">
         <v>161.51</v>
       </c>
     </row>
@@ -2299,7 +2296,7 @@
       <c r="A201" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B201" s="5">
+      <c r="B201" s="4">
         <v>151.56</v>
       </c>
     </row>
@@ -2307,7 +2304,7 @@
       <c r="A202" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B202" s="6">
+      <c r="B202" s="5">
         <f>35.78*4.5</f>
         <v>161.01</v>
       </c>
@@ -2316,7 +2313,7 @@
       <c r="A203" s="1">
         <v>44500</v>
       </c>
-      <c r="B203" s="5">
+      <c r="B203" s="4">
         <v>172.67</v>
       </c>
     </row>
@@ -2324,7 +2321,7 @@
       <c r="A204" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B204" s="5">
+      <c r="B204" s="4">
         <v>167.22</v>
       </c>
     </row>
@@ -2332,7 +2329,7 @@
       <c r="A205" s="1">
         <v>44561</v>
       </c>
-      <c r="B205" s="5">
+      <c r="B205" s="4">
         <v>178.38</v>
       </c>
     </row>
@@ -2340,15 +2337,15 @@
       <c r="A206" s="1">
         <v>44592</v>
       </c>
-      <c r="B206" s="5">
+      <c r="B206" s="4">
         <v>182.21</v>
       </c>
     </row>
     <row r="207" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A207" s="3" t="s">
+      <c r="A207" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B207" s="5">
+      <c r="B207" s="4">
         <v>187.38</v>
       </c>
     </row>
@@ -2356,7 +2353,7 @@
       <c r="A208" s="1">
         <v>44651</v>
       </c>
-      <c r="B208" s="5">
+      <c r="B208" s="4">
         <v>183.24</v>
       </c>
     </row>
@@ -2364,7 +2361,7 @@
       <c r="A209" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B209" s="5">
+      <c r="B209" s="4">
         <v>184.1</v>
       </c>
     </row>
@@ -2372,7 +2369,7 @@
       <c r="A210" s="1">
         <v>44712</v>
       </c>
-      <c r="B210" s="5">
+      <c r="B210" s="4">
         <v>182.34</v>
       </c>
     </row>
@@ -2380,7 +2377,7 @@
       <c r="A211" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B211" s="5">
+      <c r="B211" s="4">
         <v>188.91</v>
       </c>
     </row>
@@ -2388,7 +2385,7 @@
       <c r="A212" s="2">
         <v>44773</v>
       </c>
-      <c r="B212" s="5">
+      <c r="B212" s="4">
         <v>185.27</v>
       </c>
     </row>
@@ -2396,7 +2393,7 @@
       <c r="A213" s="2">
         <v>44804</v>
       </c>
-      <c r="B213" s="5">
+      <c r="B213" s="4">
         <v>176.36</v>
       </c>
     </row>
@@ -2404,7 +2401,7 @@
       <c r="A214" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B214" s="5">
+      <c r="B214" s="4">
         <v>178.97</v>
       </c>
     </row>
@@ -2412,7 +2409,7 @@
       <c r="A215" s="2">
         <v>44865</v>
       </c>
-      <c r="B215" s="5">
+      <c r="B215" s="4">
         <v>177.3</v>
       </c>
     </row>
@@ -2420,12 +2417,17 @@
       <c r="A216" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B216" s="5">
+      <c r="B216" s="4">
         <v>174.74</v>
       </c>
     </row>
     <row r="217" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A217" s="2"/>
+      <c r="A217" s="2">
+        <v>44926</v>
+      </c>
+      <c r="B217" s="4">
+        <v>178.11</v>
+      </c>
     </row>
     <row r="218" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="2"/>
